--- a/data/trans_dic/P18_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>69,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>63,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>75,05%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>67,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>75,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 42,72</t>
+          <t>47,42; 80,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 29,62</t>
+          <t>52,77; 86,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 37,49</t>
+          <t>51,48; 85,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 34,06</t>
+          <t>49,49; 84,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,22; 53,73</t>
+          <t>62,03; 91,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 32,16</t>
+          <t>50,5; 79,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,27; 45,32</t>
+          <t>64,02; 87,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 45,26</t>
+          <t>50,84; 78,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,17; 45,28</t>
+          <t>49,0; 76,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 28,39</t>
+          <t>57,39; 83,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 37,34</t>
+          <t>54,0; 75,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,08; 34,52</t>
+          <t>65,3; 84,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>55,55; 76,83</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>54,35; 76,78</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 84,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>71,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>80,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>58,79%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>79,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>85,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>82,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 25,88</t>
+          <t>74,29; 95,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 14,32</t>
+          <t>78,77; 97,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 50,74</t>
+          <t>30,15; 80,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 18,1</t>
+          <t>74,66; 95,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 29,47</t>
+          <t>20,41; 72,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 26,24</t>
+          <t>57,41; 82,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 33,0</t>
+          <t>70,44; 90,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,1; 34,32</t>
+          <t>67,85; 89,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 25,0</t>
+          <t>62,61; 86,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 18,34</t>
+          <t>44,61; 71,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,97; 39,02</t>
+          <t>69,84; 87,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 22,48</t>
+          <t>77,68; 91,38</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>49,46; 80,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>73,4; 89,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,06; 67,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>74,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>81,14%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>79,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>72,39%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>75,13%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 26,45</t>
+          <t>80,59; 96,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 46,46</t>
+          <t>62,89; 85,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 33,51</t>
+          <t>71,74; 91,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 37,16</t>
+          <t>61,53; 84,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 26,49</t>
+          <t>63,66; 87,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 20,82</t>
+          <t>71,72; 87,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,66; 27,99</t>
+          <t>75,99; 90,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,49; 34,14</t>
+          <t>68,15; 84,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 23,04</t>
+          <t>61,84; 79,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,45; 29,41</t>
+          <t>64,59; 81,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 26,99</t>
+          <t>77,81; 89,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,6; 32,27</t>
+          <t>74,72; 86,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72,27; 85,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>64,51; 79,0</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>67,76; 82,12</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>63,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>81,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>73,3%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>72,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>67,8%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 22,39</t>
+          <t>75,33; 91,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 17,09</t>
+          <t>78,63; 93,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 30,87</t>
+          <t>73,96; 90,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 27,05</t>
+          <t>71,23; 88,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,96; 35,3</t>
+          <t>60,42; 81,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 30,58</t>
+          <t>64,19; 81,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,5; 40,26</t>
+          <t>67,17; 83,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 45,42</t>
+          <t>54,87; 72,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,65</t>
+          <t>55,7; 74,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 22,54</t>
+          <t>52,67; 72,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 32,68</t>
+          <t>72,45; 83,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,25; 34,77</t>
+          <t>75,62; 86,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>66,48; 78,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>66,01; 78,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>60,67; 74,25</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>84,87%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>80,4%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>70,52%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 20,77</t>
+          <t>72,32; 91,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 22,02</t>
+          <t>74,83; 92,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 33,35</t>
+          <t>60,09; 91,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 33,44</t>
+          <t>59,2; 86,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 30,87</t>
+          <t>62,21; 87,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 26,21</t>
+          <t>58,9; 83,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 25,26</t>
+          <t>71,37; 92,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,66; 38,31</t>
+          <t>66,32; 89,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 22,66</t>
+          <t>48,84; 75,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,42</t>
+          <t>51,64; 78,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 25,81</t>
+          <t>71,29; 86,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 31,63</t>
+          <t>76,6; 90,44</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>66,23; 87,53</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>59,31; 77,93</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>62,91; 80,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>82,78%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>75,89%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>71,51%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 12,69</t>
+          <t>87,69; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 16,59</t>
+          <t>82,52; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 20,19</t>
+          <t>84,04; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 23,23</t>
+          <t>74,46; 97,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 33,43</t>
+          <t>70,77; 94,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,1; 33,35</t>
+          <t>53,82; 80,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,46; 41,1</t>
+          <t>53,28; 81,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,49; 39,17</t>
+          <t>55,68; 83,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 21,37</t>
+          <t>47,03; 79,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 23,26</t>
+          <t>46,23; 77,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 30,05</t>
+          <t>72,27; 89,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 29,81</t>
+          <t>70,21; 87,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>73,79; 90,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>64,26; 85,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>60,04; 82,2</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>75,06%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>68,56%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,93</t>
+          <t>81,27; 89,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,47</t>
+          <t>80,2; 88,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 27,89</t>
+          <t>69,0; 83,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,94</t>
+          <t>73,17; 84,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,45; 28,66</t>
+          <t>59,41; 78,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,63; 22,99</t>
+          <t>68,63; 77,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,9</t>
+          <t>74,83; 82,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,85</t>
+          <t>67,62; 76,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,15</t>
+          <t>63,29; 72,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,18</t>
+          <t>61,04; 71,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,55; 27,21</t>
+          <t>75,73; 82,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,73; 27,04</t>
+          <t>78,26; 84,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>70,4; 78,84</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>69,52; 77,1</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>62,43; 72,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55391</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77672</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73915</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88527</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>114768</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77901</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>103221</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78036</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77932</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>104893</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>133291</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>180893</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>151950</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>166458</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>219661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40833; 69472</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56477; 92682</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54426; 90340</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>63132; 107785</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>90438; 132738</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>59365; 92900</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85783; 117167</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61046; 93785</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60040; 93350</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83506; 121863</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>109987; 153427</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>157383; 203525</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>125439; 173486</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>135922; 192012</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>189392; 244921</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>119719</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>152869</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133933</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>106080</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95412</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133362</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>101788</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97323</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95455</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>215130</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>286229</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>183412</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>231256</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>201535</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>101645; 130734</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>132915; 164149</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43231; 115249</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>115181; 147295</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46464; 166199</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76526; 110456</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>116305; 148642</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85971; 113345</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79085; 109309</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72436; 116388</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>188657; 235983</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>259324; 305058</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>133593; 216617</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>205964; 250324</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>128953; 261689</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127412</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>123064</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>112574</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>100955</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>138006</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>172613</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>222681</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>161398</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>143808</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>177489</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>300025</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>345744</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>273972</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>244763</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>315496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>112609; 135128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>101914; 138680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>96392; 123034</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84687; 116213</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>114750; 157227</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>154481; 189133</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>200661; 239140</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>142691; 177727</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123973; 159328</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>154834; 195608</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>276305; 316633</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>318422; 367003</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>248399; 293288</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>218101; 267091</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>284576; 344888</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>138320</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>164108</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>135844</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127197</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>145030</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>140720</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>166410</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118626</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>110458</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>135774</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>279040</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>330517</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>254471</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>237656</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>280804</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>123157; 149073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>146806; 174283</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>119242; 146463</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>111267; 139000</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121701; 163514</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122774; 155878</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>146680; 182236</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>102026; 135581</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>94936; 126288</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>112057; 154431</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>257008; 297298</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>306304; 350844</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>230795; 274199</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>215637; 256850</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>251260; 307525</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>116717</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>134672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>107203</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>93797</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>120824</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>75087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>97550</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74419</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>58425</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>86649</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>191803</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>232221</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>181622</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>152222</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>207472</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100445; 126907</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>117805; 145091</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79367; 120757</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>72936; 106619</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>96210; 135209</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>60953; 86534</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82932; 106950</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>62222; 84087</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>45264; 69615</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>67915; 103213</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>172781; 208670</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>209604; 247456</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>149604; 197727</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>128035; 168215</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>180026; 229047</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88052</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>103277</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>83162</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>80676</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>117900</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>73676</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>93662</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>76167</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69770</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>131427</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>196939</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>159329</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>150446</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>249327</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>79131; 90237</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>90205; 109317</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>73400; 87335</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67117; 87755</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>97539; 130902</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57595; 85827</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>73310; 111737</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>58540; 88152</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>50843; 85523</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>97470; 163912</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>142568; 176708</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>173364; 217139</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>142018; 173644</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>127378; 168743</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>209332; 286582</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>645610</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>755660</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>594323</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>625085</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>742609</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>635408</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>816884</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>610434</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>557717</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>731686</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1281018</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1572545</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1204757</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1182803</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1474295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>613847; 672849</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>714798; 791881</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>527235; 639511</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>577307; 663444</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>622362; 823312</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>595727; 674983</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>774754; 856939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>568683; 644359</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>519294; 596281</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>673060; 784800</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1229405; 1335834</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1507776; 1623502</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1130025; 1265499</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1118992; 1240982</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1342423; 1563216</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>